--- a/server/LISTAS/ma/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
+++ b/server/LISTAS/ma/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
@@ -780,7 +780,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="10" t="n"/>
     </row>

--- a/server/LISTAS/ma/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
+++ b/server/LISTAS/ma/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
@@ -780,7 +780,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="10" t="n"/>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="C30" s="22" t="n"/>
       <c r="D30" s="17" t="n">
-        <v>43.481</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="E30" s="7" t="n"/>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="18" t="n">
-        <v>54.744</v>
+        <v>92</v>
       </c>
       <c r="E31" s="7" t="n"/>
     </row>

--- a/server/LISTAS/ma/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
+++ b/server/LISTAS/ma/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
@@ -780,7 +780,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="10" t="n"/>
     </row>

--- a/server/LISTAS/ma/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
+++ b/server/LISTAS/ma/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
@@ -780,7 +780,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="10" t="n"/>
     </row>

--- a/server/LISTAS/ma/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
+++ b/server/LISTAS/ma/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
@@ -780,7 +780,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="10" t="n"/>
     </row>

--- a/server/LISTAS/ma/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
+++ b/server/LISTAS/ma/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
@@ -780,7 +780,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="10" t="n"/>
     </row>

--- a/server/LISTAS/ma/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
+++ b/server/LISTAS/ma/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
@@ -780,7 +780,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="10" t="n"/>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="C30" s="22" t="n"/>
       <c r="D30" s="17" t="n">
-        <v>43.481</v>
+        <v>87.89</v>
       </c>
       <c r="E30" s="7" t="n"/>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="18" t="n">
-        <v>54.744</v>
+        <v>101.2</v>
       </c>
       <c r="E31" s="7" t="n"/>
     </row>
